--- a/biology/Botanique/Vladimir_Arnoldi/Vladimir_Arnoldi.xlsx
+++ b/biology/Botanique/Vladimir_Arnoldi/Vladimir_Arnoldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Mitrophanovitch Arnoldi (Влади́мир Митрофа́нович Арно́льди ), né le 13 juin 1871 (25 juin dans le calendrier grégorien) à Kozlov et mort le 22 mars 1924 à Moscou, est un botaniste russe spécialiste en morphologie et en algologie. Il fut nommé membre-correspondant de l'Académie des sciences de Russie en 1923. Arnoldi est l'auteur du premier ouvrage d'algologie en russe Présentation à l'étude des organismes inférieurs (1901).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Arnoldi poursuit ses études secondaires au Premier lycée classique de Moscou, puis entre au département de sciences naturelles de la faculté de physique et de mathématiques de l'université de Moscou qu'il termine en 1893. Il est nommé conservateur de l'herbarium du jardin botanique de l'université de Moscou, puis assistant à la chaire de botanique de l'institut d'agriculture de Moscou avant de revenir en 1896 à sa fonction précédente, tout en enseignant les sciences naturelles en tant que Privat-Dozent (doctorant) à l'université de Moscou. Il passe sa thèse en 1898 et reçoit une bourse pour l'étranger en 1899. Il travaille alors surtout à Munich auprès du professeur Karl Goebel. Il se rend également à Copenhague auprès du professeur Warming. Il retourne ensuite à Moscou préparer sa thèse et poursuivre son enseignement.
 En 1902, il est nommé assistant à la chaire de botanique de l'institut d'agronomie de Novaïa-Alexandria près de Varsovie et un an plus tard, il est nommé professeur de botanique à l'université de Kharkov, tout en dirigeant le jardin botanique de la ville. Il y fonde et dirige l'école d'algologie de Kharkov. Il se passionne pour la reproduction des fougères et des gymnospermes, ainsi que pour la morphologie et la flore des algues.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Die Entwicklung des weiblichen Vorkeims bei den heterosporen Lycopodiaceen // Bot. Ztg. — 1896. — Т. 44. — p. 159–168.
 (de) Beiträge zur Morphologie der Gymnospermen. I. Die Entwicklung des Endosperms bei Sequoia sempervirens // Bull. Soc. Natur. Moscou. — 1899. — Т. II—III.
